--- a/data/Симбиозы (Общая экология 2023)(1-92).xlsx
+++ b/data/Симбиозы (Общая экология 2023)(1-92).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="498">
   <si>
     <t>Почта</t>
   </si>
@@ -1484,6 +1484,30 @@
   </si>
   <si>
     <t>Homo sapiens;Pulex irritans;Canis lupus;Spermophilus dauricus;Rattus norvegicus;</t>
+  </si>
+  <si>
+    <t>st123832@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Елизавета Стародубова</t>
+  </si>
+  <si>
+    <t>st123859@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Екатерина Галкина</t>
+  </si>
+  <si>
+    <t>st123950@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Владислава Ягодская</t>
+  </si>
+  <si>
+    <t>st123949@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Михаил Бабин</t>
   </si>
 </sst>
 </file>
@@ -1657,12 +1681,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1851,12 +1881,23 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1960,26 +2001,26 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1991,122 +2032,128 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2541,10 +2588,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z93"/>
+  <dimension ref="A1:XFD98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:C$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2553,5970 +2600,6050 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="s">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="S2">
         <v>1</v>
       </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1" t="s">
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1" t="s">
+      <c r="W2" s="2"/>
+      <c r="X2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Y2">
         <v>1</v>
       </c>
-      <c r="Z2" s="1"/>
+      <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1" t="s">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1" t="s">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="S3">
         <v>1</v>
       </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1" t="s">
+      <c r="T3" s="2"/>
+      <c r="U3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1" t="s">
+      <c r="W3" s="2"/>
+      <c r="X3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
-      <c r="Z3" s="1"/>
+      <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1" t="s">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="S4">
         <v>1</v>
       </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1" t="s">
+      <c r="T4" s="2"/>
+      <c r="U4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1" t="s">
+      <c r="W4" s="2"/>
+      <c r="X4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
-      <c r="Z4" s="1"/>
+      <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1" t="s">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
         <v>50</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1" t="s">
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="s">
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2" t="s">
         <v>51</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1" t="s">
+      <c r="T5" s="2"/>
+      <c r="U5" s="2" t="s">
         <v>52</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1" t="s">
+      <c r="W5" s="2"/>
+      <c r="X5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
-      <c r="Z5" s="1"/>
+      <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>56</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
         <v>57</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
         <v>58</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1" t="s">
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2" t="s">
         <v>59</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1" t="s">
+      <c r="T6" s="2"/>
+      <c r="U6" s="2" t="s">
         <v>60</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1" t="s">
+      <c r="W6" s="2"/>
+      <c r="X6" s="2" t="s">
         <v>61</v>
       </c>
       <c r="Y6">
         <v>1</v>
       </c>
-      <c r="Z6" s="1"/>
+      <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="s">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
+      <c r="N7" s="2"/>
+      <c r="O7" s="2" t="s">
         <v>66</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1" t="s">
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2" t="s">
         <v>59</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1" t="s">
+      <c r="T7" s="2"/>
+      <c r="U7" s="2" t="s">
         <v>67</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1" t="s">
+      <c r="W7" s="2"/>
+      <c r="X7" s="2" t="s">
         <v>68</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
-      <c r="Z7" s="1"/>
+      <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>72</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1" t="s">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
+      <c r="N8" s="2"/>
+      <c r="O8" s="2" t="s">
         <v>73</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1" t="s">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2" t="s">
         <v>74</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1" t="s">
+      <c r="T8" s="2"/>
+      <c r="U8" s="2" t="s">
         <v>75</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1" t="s">
+      <c r="W8" s="2"/>
+      <c r="X8" s="2" t="s">
         <v>76</v>
       </c>
       <c r="Y8">
         <v>1</v>
       </c>
-      <c r="Z8" s="1"/>
+      <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1" t="s">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
         <v>80</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1" t="s">
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P9">
         <v>1</v>
       </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1" t="s">
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2" t="s">
         <v>81</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1" t="s">
+      <c r="T9" s="2"/>
+      <c r="U9" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1" t="s">
+      <c r="W9" s="2"/>
+      <c r="X9" s="2" t="s">
         <v>83</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
-      <c r="Z9" s="1"/>
+      <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
+      <c r="N10" s="2"/>
+      <c r="O10" s="2" t="s">
         <v>88</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1" t="s">
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2" t="s">
         <v>89</v>
       </c>
       <c r="S10">
         <v>1</v>
       </c>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1" t="s">
+      <c r="T10" s="2"/>
+      <c r="U10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1" t="s">
+      <c r="W10" s="2"/>
+      <c r="X10" s="2" t="s">
         <v>91</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
-      <c r="Z10" s="1"/>
+      <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1" t="s">
+      <c r="N11" s="2"/>
+      <c r="O11" s="2" t="s">
         <v>95</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1" t="s">
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2" t="s">
         <v>96</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1" t="s">
+      <c r="T11" s="2"/>
+      <c r="U11" s="2" t="s">
         <v>97</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1" t="s">
+      <c r="W11" s="2"/>
+      <c r="X11" s="2" t="s">
         <v>98</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
-      <c r="Z11" s="1"/>
+      <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1" t="s">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
         <v>102</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1" t="s">
+      <c r="N12" s="2"/>
+      <c r="O12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1" t="s">
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2" t="s">
         <v>89</v>
       </c>
       <c r="S12">
         <v>1</v>
       </c>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1" t="s">
+      <c r="T12" s="2"/>
+      <c r="U12" s="2" t="s">
         <v>103</v>
       </c>
       <c r="V12">
         <v>1</v>
       </c>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1" t="s">
+      <c r="W12" s="2"/>
+      <c r="X12" s="2" t="s">
         <v>104</v>
       </c>
       <c r="Y12">
         <v>1</v>
       </c>
-      <c r="Z12" s="1"/>
+      <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>107</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1" t="s">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
         <v>108</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1" t="s">
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1" t="s">
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2" t="s">
         <v>89</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1" t="s">
+      <c r="T13" s="2"/>
+      <c r="U13" s="2" t="s">
         <v>110</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1" t="s">
+      <c r="W13" s="2"/>
+      <c r="X13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Y13">
         <v>1</v>
       </c>
-      <c r="Z13" s="1"/>
+      <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1" t="s">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
         <v>114</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1" t="s">
+      <c r="N14" s="2"/>
+      <c r="O14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1" t="s">
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2" t="s">
         <v>115</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1" t="s">
+      <c r="T14" s="2"/>
+      <c r="U14" s="2" t="s">
         <v>97</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1" t="s">
+      <c r="W14" s="2"/>
+      <c r="X14" s="2" t="s">
         <v>104</v>
       </c>
       <c r="Y14">
         <v>1</v>
       </c>
-      <c r="Z14" s="1"/>
+      <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1" t="s">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
         <v>114</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1" t="s">
+      <c r="N15" s="2"/>
+      <c r="O15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P15">
         <v>1</v>
       </c>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1" t="s">
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2" t="s">
         <v>115</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1" t="s">
+      <c r="T15" s="2"/>
+      <c r="U15" s="2" t="s">
         <v>97</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1" t="s">
+      <c r="W15" s="2"/>
+      <c r="X15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Y15">
         <v>1</v>
       </c>
-      <c r="Z15" s="1"/>
+      <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C16">
         <v>7</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>121</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1" t="s">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
         <v>102</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1" t="s">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1" t="s">
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2" t="s">
         <v>122</v>
       </c>
       <c r="S16">
         <v>1</v>
       </c>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1" t="s">
+      <c r="T16" s="2"/>
+      <c r="U16" s="2" t="s">
         <v>123</v>
       </c>
       <c r="V16">
         <v>1</v>
       </c>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1" t="s">
+      <c r="W16" s="2"/>
+      <c r="X16" s="2" t="s">
         <v>104</v>
       </c>
       <c r="Y16">
         <v>1</v>
       </c>
-      <c r="Z16" s="1"/>
+      <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>126</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1" t="s">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
         <v>127</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1" t="s">
+      <c r="N17" s="2"/>
+      <c r="O17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P17">
         <v>1</v>
       </c>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1" t="s">
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2" t="s">
         <v>128</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1" t="s">
+      <c r="T17" s="2"/>
+      <c r="U17" s="2" t="s">
         <v>129</v>
       </c>
       <c r="V17">
         <v>1</v>
       </c>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1" t="s">
+      <c r="W17" s="2"/>
+      <c r="X17" s="2" t="s">
         <v>130</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
-      <c r="Z17" s="1"/>
+      <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1" t="s">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
         <v>102</v>
       </c>
       <c r="M18">
         <v>1</v>
       </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1" t="s">
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P18">
         <v>1</v>
       </c>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1" t="s">
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2" t="s">
         <v>81</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1" t="s">
+      <c r="T18" s="2"/>
+      <c r="U18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1" t="s">
+      <c r="W18" s="2"/>
+      <c r="X18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Y18">
         <v>1</v>
       </c>
-      <c r="Z18" s="1"/>
+      <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1" t="s">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2" t="s">
         <v>137</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1" t="s">
+      <c r="N19" s="2"/>
+      <c r="O19" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P19">
         <v>1</v>
       </c>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1" t="s">
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2" t="s">
         <v>138</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1" t="s">
+      <c r="T19" s="2"/>
+      <c r="U19" s="2" t="s">
         <v>139</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1" t="s">
+      <c r="W19" s="2"/>
+      <c r="X19" s="2" t="s">
         <v>140</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
-      <c r="Z19" s="1"/>
+      <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>143</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1" t="s">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
         <v>144</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1" t="s">
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
         <v>145</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1" t="s">
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2" t="s">
         <v>74</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1" t="s">
+      <c r="T20" s="2"/>
+      <c r="U20" s="2" t="s">
         <v>75</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1" t="s">
+      <c r="W20" s="2"/>
+      <c r="X20" s="2" t="s">
         <v>76</v>
       </c>
       <c r="Y20">
         <v>1</v>
       </c>
-      <c r="Z20" s="1"/>
+      <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>148</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1" t="s">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1" t="s">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
         <v>149</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1" t="s">
+      <c r="N21" s="2"/>
+      <c r="O21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P21">
         <v>1</v>
       </c>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1" t="s">
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2" t="s">
         <v>81</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1" t="s">
+      <c r="T21" s="2"/>
+      <c r="U21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1" t="s">
+      <c r="W21" s="2"/>
+      <c r="X21" s="2" t="s">
         <v>150</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
-      <c r="Z21" s="1"/>
+      <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>153</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1" t="s">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1" t="s">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
         <v>154</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1" t="s">
+      <c r="N22" s="2"/>
+      <c r="O22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P22">
         <v>1</v>
       </c>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1" t="s">
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="S22">
         <v>1</v>
       </c>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1" t="s">
+      <c r="T22" s="2"/>
+      <c r="U22" s="2" t="s">
         <v>75</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1" t="s">
+      <c r="W22" s="2"/>
+      <c r="X22" s="2" t="s">
         <v>76</v>
       </c>
       <c r="Y22">
         <v>1</v>
       </c>
-      <c r="Z22" s="1"/>
+      <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>157</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1" t="s">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1" t="s">
+      <c r="K23" s="2"/>
+      <c r="L23" s="2" t="s">
         <v>158</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1" t="s">
+      <c r="N23" s="2"/>
+      <c r="O23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P23">
         <v>1</v>
       </c>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1" t="s">
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2" t="s">
         <v>81</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1" t="s">
+      <c r="T23" s="2"/>
+      <c r="U23" s="2" t="s">
         <v>159</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1" t="s">
+      <c r="W23" s="2"/>
+      <c r="X23" s="2" t="s">
         <v>104</v>
       </c>
       <c r="Y23">
         <v>1</v>
       </c>
-      <c r="Z23" s="1"/>
+      <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1" t="s">
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1" t="s">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="s">
         <v>163</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1" t="s">
+      <c r="N24" s="2"/>
+      <c r="O24" s="2" t="s">
         <v>164</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1" t="s">
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2" t="s">
         <v>165</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1" t="s">
+      <c r="T24" s="2"/>
+      <c r="U24" s="2" t="s">
         <v>166</v>
       </c>
       <c r="V24">
         <v>0</v>
       </c>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1" t="s">
+      <c r="W24" s="2"/>
+      <c r="X24" s="2" t="s">
         <v>167</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
-      <c r="Z24" s="1"/>
+      <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>170</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1" t="s">
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1" t="s">
+      <c r="K25" s="2"/>
+      <c r="L25" s="2" t="s">
         <v>171</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1" t="s">
+      <c r="N25" s="2"/>
+      <c r="O25" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P25">
         <v>1</v>
       </c>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1" t="s">
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2" t="s">
         <v>51</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1" t="s">
+      <c r="T25" s="2"/>
+      <c r="U25" s="2" t="s">
         <v>172</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1" t="s">
+      <c r="W25" s="2"/>
+      <c r="X25" s="2" t="s">
         <v>173</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
-      <c r="Z25" s="1"/>
+      <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>176</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1" t="s">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1" t="s">
+      <c r="K26" s="2"/>
+      <c r="L26" s="2" t="s">
         <v>177</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1" t="s">
+      <c r="N26" s="2"/>
+      <c r="O26" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P26">
         <v>1</v>
       </c>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1" t="s">
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2" t="s">
         <v>178</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1" t="s">
+      <c r="T26" s="2"/>
+      <c r="U26" s="2" t="s">
         <v>110</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1" t="s">
+      <c r="W26" s="2"/>
+      <c r="X26" s="2" t="s">
         <v>179</v>
       </c>
       <c r="Y26">
         <v>1</v>
       </c>
-      <c r="Z26" s="1"/>
+      <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>181</v>
       </c>
       <c r="C27">
         <v>4</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>182</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1" t="s">
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1" t="s">
+      <c r="K27" s="2"/>
+      <c r="L27" s="2" t="s">
         <v>158</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1" t="s">
+      <c r="N27" s="2"/>
+      <c r="O27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P27">
         <v>1</v>
       </c>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1" t="s">
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2" t="s">
         <v>128</v>
       </c>
       <c r="S27">
         <v>1</v>
       </c>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1" t="s">
+      <c r="T27" s="2"/>
+      <c r="U27" s="2" t="s">
         <v>183</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1" t="s">
+      <c r="W27" s="2"/>
+      <c r="X27" s="2" t="s">
         <v>184</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
-      <c r="Z27" s="1"/>
+      <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>187</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1" t="s">
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1" t="s">
+      <c r="K28" s="2"/>
+      <c r="L28" s="2" t="s">
         <v>144</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1" t="s">
+      <c r="N28" s="2"/>
+      <c r="O28" s="2" t="s">
         <v>95</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1" t="s">
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2" t="s">
         <v>96</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1" t="s">
+      <c r="T28" s="2"/>
+      <c r="U28" s="2" t="s">
         <v>52</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1" t="s">
+      <c r="W28" s="2"/>
+      <c r="X28" s="2" t="s">
         <v>76</v>
       </c>
       <c r="Y28">
         <v>1</v>
       </c>
-      <c r="Z28" s="1"/>
+      <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>190</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1" t="s">
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1" t="s">
+      <c r="K29" s="2"/>
+      <c r="L29" s="2" t="s">
         <v>191</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1" t="s">
+      <c r="N29" s="2"/>
+      <c r="O29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P29">
         <v>1</v>
       </c>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1" t="s">
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2" t="s">
         <v>115</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1" t="s">
+      <c r="T29" s="2"/>
+      <c r="U29" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1" t="s">
+      <c r="W29" s="2"/>
+      <c r="X29" s="2" t="s">
         <v>192</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
-      <c r="Z29" s="1"/>
+      <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>195</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1" t="s">
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1" t="s">
+      <c r="K30" s="2"/>
+      <c r="L30" s="2" t="s">
         <v>196</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1" t="s">
+      <c r="N30" s="2"/>
+      <c r="O30" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P30">
         <v>1</v>
       </c>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1" t="s">
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2" t="s">
         <v>122</v>
       </c>
       <c r="S30">
         <v>1</v>
       </c>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1" t="s">
+      <c r="T30" s="2"/>
+      <c r="U30" s="2" t="s">
         <v>97</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1" t="s">
+      <c r="W30" s="2"/>
+      <c r="X30" s="2" t="s">
         <v>197</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
-      <c r="Z30" s="1"/>
+      <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>200</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1" t="s">
+      <c r="H31" s="2"/>
+      <c r="I31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1" t="s">
+      <c r="K31" s="2"/>
+      <c r="L31" s="2" t="s">
         <v>201</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1" t="s">
+      <c r="N31" s="2"/>
+      <c r="O31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P31">
         <v>1</v>
       </c>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1" t="s">
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2" t="s">
         <v>81</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1" t="s">
+      <c r="T31" s="2"/>
+      <c r="U31" s="2" t="s">
         <v>139</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1" t="s">
+      <c r="W31" s="2"/>
+      <c r="X31" s="2" t="s">
         <v>83</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
-      <c r="Z31" s="1"/>
+      <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>204</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1" t="s">
+      <c r="H32" s="2"/>
+      <c r="I32" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1" t="s">
+      <c r="K32" s="2"/>
+      <c r="L32" s="2" t="s">
         <v>205</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1" t="s">
+      <c r="N32" s="2"/>
+      <c r="O32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P32">
         <v>1</v>
       </c>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1" t="s">
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2" t="s">
         <v>206</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1" t="s">
+      <c r="T32" s="2"/>
+      <c r="U32" s="2" t="s">
         <v>207</v>
       </c>
       <c r="V32">
         <v>0</v>
       </c>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1" t="s">
+      <c r="W32" s="2"/>
+      <c r="X32" s="2" t="s">
         <v>140</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
-      <c r="Z32" s="1"/>
+      <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C33">
         <v>4</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>153</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1" t="s">
+      <c r="H33" s="2"/>
+      <c r="I33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1" t="s">
+      <c r="K33" s="2"/>
+      <c r="L33" s="2" t="s">
         <v>154</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1" t="s">
+      <c r="N33" s="2"/>
+      <c r="O33" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P33">
         <v>1</v>
       </c>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1" t="s">
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2" t="s">
         <v>210</v>
       </c>
       <c r="S33">
         <v>1</v>
       </c>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1" t="s">
+      <c r="T33" s="2"/>
+      <c r="U33" s="2" t="s">
         <v>75</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1" t="s">
+      <c r="W33" s="2"/>
+      <c r="X33" s="2" t="s">
         <v>179</v>
       </c>
       <c r="Y33">
         <v>1</v>
       </c>
-      <c r="Z33" s="1"/>
+      <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="D34" s="2"/>
+      <c r="E34" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>157</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1" t="s">
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1" t="s">
+      <c r="K34" s="2"/>
+      <c r="L34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1" t="s">
+      <c r="N34" s="2"/>
+      <c r="O34" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P34">
         <v>1</v>
       </c>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1" t="s">
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2" t="s">
         <v>39</v>
       </c>
       <c r="S34">
         <v>1</v>
       </c>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1" t="s">
+      <c r="T34" s="2"/>
+      <c r="U34" s="2" t="s">
         <v>75</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1" t="s">
+      <c r="W34" s="2"/>
+      <c r="X34" s="2" t="s">
         <v>213</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
-      <c r="Z34" s="1"/>
+      <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1" t="s">
+      <c r="H35" s="2"/>
+      <c r="I35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1" t="s">
+      <c r="K35" s="2"/>
+      <c r="L35" s="2" t="s">
         <v>217</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1" t="s">
+      <c r="N35" s="2"/>
+      <c r="O35" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P35">
         <v>1</v>
       </c>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1" t="s">
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2" t="s">
         <v>218</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1" t="s">
+      <c r="T35" s="2"/>
+      <c r="U35" s="2" t="s">
         <v>52</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1" t="s">
+      <c r="W35" s="2"/>
+      <c r="X35" s="2" t="s">
         <v>76</v>
       </c>
       <c r="Y35">
         <v>1</v>
       </c>
-      <c r="Z35" s="1"/>
+      <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="D36" s="2"/>
+      <c r="E36" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>221</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1" t="s">
+      <c r="H36" s="2"/>
+      <c r="I36" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1" t="s">
+      <c r="K36" s="2"/>
+      <c r="L36" s="2" t="s">
         <v>222</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1" t="s">
+      <c r="N36" s="2"/>
+      <c r="O36" s="2" t="s">
         <v>223</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1" t="s">
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2" t="s">
         <v>81</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1" t="s">
+      <c r="T36" s="2"/>
+      <c r="U36" s="2" t="s">
         <v>224</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1" t="s">
+      <c r="W36" s="2"/>
+      <c r="X36" s="2" t="s">
         <v>76</v>
       </c>
       <c r="Y36">
         <v>1</v>
       </c>
-      <c r="Z36" s="1"/>
+      <c r="Z36" s="2"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C37">
         <v>4</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="D37" s="2"/>
+      <c r="E37" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>121</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1" t="s">
+      <c r="H37" s="2"/>
+      <c r="I37" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1" t="s">
+      <c r="K37" s="2"/>
+      <c r="L37" s="2" t="s">
         <v>227</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1" t="s">
+      <c r="N37" s="2"/>
+      <c r="O37" s="2" t="s">
         <v>66</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1" t="s">
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2" t="s">
         <v>128</v>
       </c>
       <c r="S37">
         <v>1</v>
       </c>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1" t="s">
+      <c r="T37" s="2"/>
+      <c r="U37" s="2" t="s">
         <v>33</v>
       </c>
       <c r="V37">
         <v>0</v>
       </c>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1" t="s">
+      <c r="W37" s="2"/>
+      <c r="X37" s="2" t="s">
         <v>104</v>
       </c>
       <c r="Y37">
         <v>1</v>
       </c>
-      <c r="Z37" s="1"/>
+      <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>229</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="D38" s="2"/>
+      <c r="E38" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>230</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1" t="s">
+      <c r="H38" s="2"/>
+      <c r="I38" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1" t="s">
+      <c r="K38" s="2"/>
+      <c r="L38" s="2" t="s">
         <v>231</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1" t="s">
+      <c r="N38" s="2"/>
+      <c r="O38" s="2" t="s">
         <v>73</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1" t="s">
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2" t="s">
         <v>232</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1" t="s">
+      <c r="T38" s="2"/>
+      <c r="U38" s="2" t="s">
         <v>233</v>
       </c>
       <c r="V38">
         <v>0</v>
       </c>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1" t="s">
+      <c r="W38" s="2"/>
+      <c r="X38" s="2" t="s">
         <v>140</v>
       </c>
       <c r="Y38">
         <v>0</v>
       </c>
-      <c r="Z38" s="1"/>
+      <c r="Z38" s="2"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="D39" s="2"/>
+      <c r="E39" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>236</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1" t="s">
+      <c r="H39" s="2"/>
+      <c r="I39" s="2" t="s">
         <v>237</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1" t="s">
+      <c r="K39" s="2"/>
+      <c r="L39" s="2" t="s">
         <v>238</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1" t="s">
+      <c r="N39" s="2"/>
+      <c r="O39" s="2" t="s">
         <v>66</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1" t="s">
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2" t="s">
         <v>239</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1" t="s">
+      <c r="T39" s="2"/>
+      <c r="U39" s="2" t="s">
         <v>240</v>
       </c>
       <c r="V39">
         <v>0</v>
       </c>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1" t="s">
+      <c r="W39" s="2"/>
+      <c r="X39" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Y39">
         <v>1</v>
       </c>
-      <c r="Z39" s="1"/>
+      <c r="Z39" s="2"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>242</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F40" s="1" t="s">
+      <c r="D40" s="2"/>
+      <c r="E40" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>243</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1" t="s">
+      <c r="H40" s="2"/>
+      <c r="I40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1" t="s">
+      <c r="K40" s="2"/>
+      <c r="L40" s="2" t="s">
         <v>57</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1" t="s">
+      <c r="N40" s="2"/>
+      <c r="O40" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P40">
         <v>1</v>
       </c>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1" t="s">
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2" t="s">
         <v>32</v>
       </c>
       <c r="S40">
         <v>1</v>
       </c>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1" t="s">
+      <c r="T40" s="2"/>
+      <c r="U40" s="2" t="s">
         <v>75</v>
       </c>
       <c r="V40">
         <v>0</v>
       </c>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1" t="s">
+      <c r="W40" s="2"/>
+      <c r="X40" s="2" t="s">
         <v>45</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
-      <c r="Z40" s="1"/>
+      <c r="Z40" s="2"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>245</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="D41" s="2"/>
+      <c r="E41" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>246</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1" t="s">
+      <c r="H41" s="2"/>
+      <c r="I41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1" t="s">
+      <c r="K41" s="2"/>
+      <c r="L41" s="2" t="s">
         <v>44</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1" t="s">
+      <c r="N41" s="2"/>
+      <c r="O41" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P41">
         <v>1</v>
       </c>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1" t="s">
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2" t="s">
         <v>32</v>
       </c>
       <c r="S41">
         <v>1</v>
       </c>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1" t="s">
+      <c r="T41" s="2"/>
+      <c r="U41" s="2" t="s">
         <v>183</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1" t="s">
+      <c r="W41" s="2"/>
+      <c r="X41" s="2" t="s">
         <v>247</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
-      <c r="Z41" s="1"/>
+      <c r="Z41" s="2"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F42" s="1" t="s">
+      <c r="D42" s="2"/>
+      <c r="E42" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>153</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1" t="s">
+      <c r="H42" s="2"/>
+      <c r="I42" s="2" t="s">
         <v>250</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1" t="s">
+      <c r="K42" s="2"/>
+      <c r="L42" s="2" t="s">
         <v>44</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1" t="s">
+      <c r="N42" s="2"/>
+      <c r="O42" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P42">
         <v>1</v>
       </c>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1" t="s">
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2" t="s">
         <v>122</v>
       </c>
       <c r="S42">
         <v>1</v>
       </c>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1" t="s">
+      <c r="T42" s="2"/>
+      <c r="U42" s="2" t="s">
         <v>33</v>
       </c>
       <c r="V42">
         <v>0</v>
       </c>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1" t="s">
+      <c r="W42" s="2"/>
+      <c r="X42" s="2" t="s">
         <v>213</v>
       </c>
       <c r="Y42">
         <v>0</v>
       </c>
-      <c r="Z42" s="1"/>
+      <c r="Z42" s="2"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>252</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="D43" s="2"/>
+      <c r="E43" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>253</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1" t="s">
+      <c r="H43" s="2"/>
+      <c r="I43" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1" t="s">
+      <c r="K43" s="2"/>
+      <c r="L43" s="2" t="s">
         <v>254</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1" t="s">
+      <c r="N43" s="2"/>
+      <c r="O43" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P43">
         <v>1</v>
       </c>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1" t="s">
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2" t="s">
         <v>128</v>
       </c>
       <c r="S43">
         <v>1</v>
       </c>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1" t="s">
+      <c r="T43" s="2"/>
+      <c r="U43" s="2" t="s">
         <v>207</v>
       </c>
       <c r="V43">
         <v>0</v>
       </c>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1" t="s">
+      <c r="W43" s="2"/>
+      <c r="X43" s="2" t="s">
         <v>255</v>
       </c>
       <c r="Y43">
         <v>0</v>
       </c>
-      <c r="Z43" s="1"/>
+      <c r="Z43" s="2"/>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>257</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="D44" s="2"/>
+      <c r="E44" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>258</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1" t="s">
+      <c r="H44" s="2"/>
+      <c r="I44" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1" t="s">
+      <c r="K44" s="2"/>
+      <c r="L44" s="2" t="s">
         <v>259</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1" t="s">
+      <c r="N44" s="2"/>
+      <c r="O44" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P44">
         <v>1</v>
       </c>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1" t="s">
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2" t="s">
         <v>122</v>
       </c>
       <c r="S44">
         <v>1</v>
       </c>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1" t="s">
+      <c r="T44" s="2"/>
+      <c r="U44" s="2" t="s">
         <v>139</v>
       </c>
       <c r="V44">
         <v>0</v>
       </c>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1" t="s">
+      <c r="W44" s="2"/>
+      <c r="X44" s="2" t="s">
         <v>130</v>
       </c>
       <c r="Y44">
         <v>0</v>
       </c>
-      <c r="Z44" s="1"/>
+      <c r="Z44" s="2"/>
     </row>
     <row r="45" spans="1:26">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>261</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="D45" s="2"/>
+      <c r="E45" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>262</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1" t="s">
+      <c r="H45" s="2"/>
+      <c r="I45" s="2" t="s">
         <v>263</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1" t="s">
+      <c r="K45" s="2"/>
+      <c r="L45" s="2" t="s">
         <v>108</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1" t="s">
+      <c r="N45" s="2"/>
+      <c r="O45" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P45">
         <v>1</v>
       </c>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1" t="s">
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2" t="s">
         <v>264</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1" t="s">
+      <c r="T45" s="2"/>
+      <c r="U45" s="2" t="s">
         <v>52</v>
       </c>
       <c r="V45">
         <v>0</v>
       </c>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1" t="s">
+      <c r="W45" s="2"/>
+      <c r="X45" s="2" t="s">
         <v>104</v>
       </c>
       <c r="Y45">
         <v>1</v>
       </c>
-      <c r="Z45" s="1"/>
+      <c r="Z45" s="2"/>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>266</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F46" s="1" t="s">
+      <c r="D46" s="2"/>
+      <c r="E46" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>267</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1" t="s">
+      <c r="H46" s="2"/>
+      <c r="I46" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1" t="s">
+      <c r="K46" s="2"/>
+      <c r="L46" s="2" t="s">
         <v>144</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1" t="s">
+      <c r="N46" s="2"/>
+      <c r="O46" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P46">
         <v>1</v>
       </c>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1" t="s">
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2" t="s">
         <v>268</v>
       </c>
       <c r="S46">
         <v>0</v>
       </c>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1" t="s">
+      <c r="T46" s="2"/>
+      <c r="U46" s="2" t="s">
         <v>269</v>
       </c>
       <c r="V46">
         <v>0</v>
       </c>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1" t="s">
+      <c r="W46" s="2"/>
+      <c r="X46" s="2" t="s">
         <v>270</v>
       </c>
       <c r="Y46">
         <v>1</v>
       </c>
-      <c r="Z46" s="1"/>
+      <c r="Z46" s="2"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>272</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F47" s="1" t="s">
+      <c r="D47" s="2"/>
+      <c r="E47" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>273</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1" t="s">
+      <c r="H47" s="2"/>
+      <c r="I47" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1" t="s">
+      <c r="K47" s="2"/>
+      <c r="L47" s="2" t="s">
         <v>274</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1" t="s">
+      <c r="N47" s="2"/>
+      <c r="O47" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P47">
         <v>1</v>
       </c>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1" t="s">
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2" t="s">
         <v>115</v>
       </c>
       <c r="S47">
         <v>0</v>
       </c>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1" t="s">
+      <c r="T47" s="2"/>
+      <c r="U47" s="2" t="s">
         <v>52</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1" t="s">
+      <c r="W47" s="2"/>
+      <c r="X47" s="2" t="s">
         <v>61</v>
       </c>
       <c r="Y47">
         <v>1</v>
       </c>
-      <c r="Z47" s="1"/>
+      <c r="Z47" s="2"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>276</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F48" s="1" t="s">
+      <c r="D48" s="2"/>
+      <c r="E48" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>277</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1" t="s">
+      <c r="H48" s="2"/>
+      <c r="I48" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1" t="s">
+      <c r="K48" s="2"/>
+      <c r="L48" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1" t="s">
+      <c r="N48" s="2"/>
+      <c r="O48" s="2" t="s">
         <v>278</v>
       </c>
       <c r="P48">
         <v>0</v>
       </c>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1" t="s">
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2" t="s">
         <v>279</v>
       </c>
       <c r="S48">
         <v>0</v>
       </c>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1" t="s">
+      <c r="T48" s="2"/>
+      <c r="U48" s="2" t="s">
         <v>280</v>
       </c>
       <c r="V48">
         <v>0</v>
       </c>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1" t="s">
+      <c r="W48" s="2"/>
+      <c r="X48" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Y48">
         <v>0</v>
       </c>
-      <c r="Z48" s="1"/>
+      <c r="Z48" s="2"/>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>282</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F49" s="1" t="s">
+      <c r="D49" s="2"/>
+      <c r="E49" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>283</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1" t="s">
+      <c r="H49" s="2"/>
+      <c r="I49" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1" t="s">
+      <c r="K49" s="2"/>
+      <c r="L49" s="2" t="s">
         <v>284</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1" t="s">
+      <c r="N49" s="2"/>
+      <c r="O49" s="2" t="s">
         <v>285</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1" t="s">
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2" t="s">
         <v>115</v>
       </c>
       <c r="S49">
         <v>0</v>
       </c>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1" t="s">
+      <c r="T49" s="2"/>
+      <c r="U49" s="2" t="s">
         <v>110</v>
       </c>
       <c r="V49">
         <v>0</v>
       </c>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1" t="s">
+      <c r="W49" s="2"/>
+      <c r="X49" s="2" t="s">
         <v>286</v>
       </c>
       <c r="Y49">
         <v>0</v>
       </c>
-      <c r="Z49" s="1"/>
+      <c r="Z49" s="2"/>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="D50" s="2"/>
+      <c r="E50" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>289</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1" t="s">
+      <c r="H50" s="2"/>
+      <c r="I50" s="2" t="s">
         <v>290</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1" t="s">
+      <c r="K50" s="2"/>
+      <c r="L50" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1" t="s">
+      <c r="N50" s="2"/>
+      <c r="O50" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P50">
         <v>1</v>
       </c>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1" t="s">
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2" t="s">
         <v>291</v>
       </c>
       <c r="S50">
         <v>0</v>
       </c>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1" t="s">
+      <c r="T50" s="2"/>
+      <c r="U50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="V50">
         <v>0</v>
       </c>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1" t="s">
+      <c r="W50" s="2"/>
+      <c r="X50" s="2" t="s">
         <v>292</v>
       </c>
       <c r="Y50">
         <v>0</v>
       </c>
-      <c r="Z50" s="1"/>
+      <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>294</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="D51" s="2"/>
+      <c r="E51" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>295</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1" t="s">
+      <c r="H51" s="2"/>
+      <c r="I51" s="2" t="s">
         <v>290</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1" t="s">
+      <c r="K51" s="2"/>
+      <c r="L51" s="2" t="s">
         <v>108</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1" t="s">
+      <c r="N51" s="2"/>
+      <c r="O51" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P51">
         <v>1</v>
       </c>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1" t="s">
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2" t="s">
         <v>296</v>
       </c>
       <c r="S51">
         <v>0</v>
       </c>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1" t="s">
+      <c r="T51" s="2"/>
+      <c r="U51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="V51">
         <v>0</v>
       </c>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1" t="s">
+      <c r="W51" s="2"/>
+      <c r="X51" s="2" t="s">
         <v>292</v>
       </c>
       <c r="Y51">
         <v>0</v>
       </c>
-      <c r="Z51" s="1"/>
+      <c r="Z51" s="2"/>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>298</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F52" s="1" t="s">
+      <c r="D52" s="2"/>
+      <c r="E52" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>299</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1" t="s">
+      <c r="H52" s="2"/>
+      <c r="I52" s="2" t="s">
         <v>290</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1" t="s">
+      <c r="K52" s="2"/>
+      <c r="L52" s="2" t="s">
         <v>114</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1" t="s">
+      <c r="N52" s="2"/>
+      <c r="O52" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P52">
         <v>1</v>
       </c>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1" t="s">
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2" t="s">
         <v>291</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1" t="s">
+      <c r="T52" s="2"/>
+      <c r="U52" s="2" t="s">
         <v>75</v>
       </c>
       <c r="V52">
         <v>0</v>
       </c>
-      <c r="W52" s="1"/>
-      <c r="X52" s="1" t="s">
+      <c r="W52" s="2"/>
+      <c r="X52" s="2" t="s">
         <v>292</v>
       </c>
       <c r="Y52">
         <v>0</v>
       </c>
-      <c r="Z52" s="1"/>
+      <c r="Z52" s="2"/>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F53" s="1" t="s">
+      <c r="D53" s="2"/>
+      <c r="E53" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>302</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1" t="s">
+      <c r="H53" s="2"/>
+      <c r="I53" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1" t="s">
+      <c r="K53" s="2"/>
+      <c r="L53" s="2" t="s">
         <v>303</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1" t="s">
+      <c r="N53" s="2"/>
+      <c r="O53" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P53">
         <v>1</v>
       </c>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1" t="s">
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2" t="s">
         <v>81</v>
       </c>
       <c r="S53">
         <v>0</v>
       </c>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1" t="s">
+      <c r="T53" s="2"/>
+      <c r="U53" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V53">
         <v>0</v>
       </c>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1" t="s">
+      <c r="W53" s="2"/>
+      <c r="X53" s="2" t="s">
         <v>304</v>
       </c>
       <c r="Y53">
         <v>0</v>
       </c>
-      <c r="Z53" s="1"/>
+      <c r="Z53" s="2"/>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>306</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F54" s="1" t="s">
+      <c r="D54" s="2"/>
+      <c r="E54" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>307</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1" t="s">
+      <c r="H54" s="2"/>
+      <c r="I54" s="2" t="s">
         <v>290</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1" t="s">
+      <c r="K54" s="2"/>
+      <c r="L54" s="2" t="s">
         <v>308</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1" t="s">
+      <c r="N54" s="2"/>
+      <c r="O54" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P54">
         <v>1</v>
       </c>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1" t="s">
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2" t="s">
         <v>296</v>
       </c>
       <c r="S54">
         <v>0</v>
       </c>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1" t="s">
+      <c r="T54" s="2"/>
+      <c r="U54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="V54">
         <v>0</v>
       </c>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1" t="s">
+      <c r="W54" s="2"/>
+      <c r="X54" s="2" t="s">
         <v>309</v>
       </c>
       <c r="Y54">
         <v>0</v>
       </c>
-      <c r="Z54" s="1"/>
+      <c r="Z54" s="2"/>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>311</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F55" s="1" t="s">
+      <c r="D55" s="2"/>
+      <c r="E55" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>299</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1" t="s">
+      <c r="H55" s="2"/>
+      <c r="I55" s="2" t="s">
         <v>290</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1" t="s">
+      <c r="K55" s="2"/>
+      <c r="L55" s="2" t="s">
         <v>312</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1" t="s">
+      <c r="N55" s="2"/>
+      <c r="O55" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P55">
         <v>1</v>
       </c>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1" t="s">
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2" t="s">
         <v>291</v>
       </c>
       <c r="S55">
         <v>0</v>
       </c>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1" t="s">
+      <c r="T55" s="2"/>
+      <c r="U55" s="2" t="s">
         <v>75</v>
       </c>
       <c r="V55">
         <v>0</v>
       </c>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1" t="s">
+      <c r="W55" s="2"/>
+      <c r="X55" s="2" t="s">
         <v>313</v>
       </c>
       <c r="Y55">
         <v>0</v>
       </c>
-      <c r="Z55" s="1"/>
+      <c r="Z55" s="2"/>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C56">
         <v>3</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F56" s="1" t="s">
+      <c r="D56" s="2"/>
+      <c r="E56" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>316</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1" t="s">
+      <c r="H56" s="2"/>
+      <c r="I56" s="2" t="s">
         <v>290</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1" t="s">
+      <c r="K56" s="2"/>
+      <c r="L56" s="2" t="s">
         <v>317</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1" t="s">
+      <c r="N56" s="2"/>
+      <c r="O56" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P56">
         <v>1</v>
       </c>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1" t="s">
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2" t="s">
         <v>291</v>
       </c>
       <c r="S56">
         <v>0</v>
       </c>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1" t="s">
+      <c r="T56" s="2"/>
+      <c r="U56" s="2" t="s">
         <v>33</v>
       </c>
       <c r="V56">
         <v>0</v>
       </c>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1" t="s">
+      <c r="W56" s="2"/>
+      <c r="X56" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Y56">
         <v>1</v>
       </c>
-      <c r="Z56" s="1"/>
+      <c r="Z56" s="2"/>
     </row>
     <row r="57" spans="1:26">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>319</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F57" s="1" t="s">
+      <c r="D57" s="2"/>
+      <c r="E57" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>320</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1" t="s">
+      <c r="H57" s="2"/>
+      <c r="I57" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J57">
         <v>1</v>
       </c>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1" t="s">
+      <c r="K57" s="2"/>
+      <c r="L57" s="2" t="s">
         <v>149</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1" t="s">
+      <c r="N57" s="2"/>
+      <c r="O57" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P57">
         <v>1</v>
       </c>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1" t="s">
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2" t="s">
         <v>321</v>
       </c>
       <c r="S57">
         <v>0</v>
       </c>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1" t="s">
+      <c r="T57" s="2"/>
+      <c r="U57" s="2" t="s">
         <v>322</v>
       </c>
       <c r="V57">
         <v>0</v>
       </c>
-      <c r="W57" s="1"/>
-      <c r="X57" s="1" t="s">
+      <c r="W57" s="2"/>
+      <c r="X57" s="2" t="s">
         <v>323</v>
       </c>
       <c r="Y57">
         <v>0</v>
       </c>
-      <c r="Z57" s="1"/>
+      <c r="Z57" s="2"/>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>325</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F58" s="1" t="s">
+      <c r="D58" s="2"/>
+      <c r="E58" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1" t="s">
+      <c r="H58" s="2"/>
+      <c r="I58" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J58">
         <v>1</v>
       </c>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1" t="s">
+      <c r="K58" s="2"/>
+      <c r="L58" s="2" t="s">
         <v>327</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1" t="s">
+      <c r="N58" s="2"/>
+      <c r="O58" s="2" t="s">
         <v>328</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1" t="s">
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2" t="s">
         <v>329</v>
       </c>
       <c r="S58">
         <v>0</v>
       </c>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1" t="s">
+      <c r="T58" s="2"/>
+      <c r="U58" s="2" t="s">
         <v>60</v>
       </c>
       <c r="V58">
         <v>0</v>
       </c>
-      <c r="W58" s="1"/>
-      <c r="X58" s="1" t="s">
+      <c r="W58" s="2"/>
+      <c r="X58" s="2" t="s">
         <v>197</v>
       </c>
       <c r="Y58">
         <v>0</v>
       </c>
-      <c r="Z58" s="1"/>
+      <c r="Z58" s="2"/>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>331</v>
       </c>
       <c r="C59">
         <v>3</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F59" s="1" t="s">
+      <c r="D59" s="2"/>
+      <c r="E59" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>332</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1" t="s">
+      <c r="H59" s="2"/>
+      <c r="I59" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1" t="s">
+      <c r="K59" s="2"/>
+      <c r="L59" s="2" t="s">
         <v>333</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1" t="s">
+      <c r="N59" s="2"/>
+      <c r="O59" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P59">
         <v>1</v>
       </c>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1" t="s">
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2" t="s">
         <v>122</v>
       </c>
       <c r="S59">
         <v>1</v>
       </c>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1" t="s">
+      <c r="T59" s="2"/>
+      <c r="U59" s="2" t="s">
         <v>139</v>
       </c>
       <c r="V59">
         <v>0</v>
       </c>
-      <c r="W59" s="1"/>
-      <c r="X59" s="1" t="s">
+      <c r="W59" s="2"/>
+      <c r="X59" s="2" t="s">
         <v>334</v>
       </c>
       <c r="Y59">
         <v>0</v>
       </c>
-      <c r="Z59" s="1"/>
+      <c r="Z59" s="2"/>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>336</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F60" s="1" t="s">
+      <c r="D60" s="2"/>
+      <c r="E60" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>182</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1" t="s">
+      <c r="H60" s="2"/>
+      <c r="I60" s="2" t="s">
         <v>290</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1" t="s">
+      <c r="K60" s="2"/>
+      <c r="L60" s="2" t="s">
         <v>317</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1" t="s">
+      <c r="N60" s="2"/>
+      <c r="O60" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P60">
         <v>1</v>
       </c>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1" t="s">
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2" t="s">
         <v>337</v>
       </c>
       <c r="S60">
         <v>0</v>
       </c>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1" t="s">
+      <c r="T60" s="2"/>
+      <c r="U60" s="2" t="s">
         <v>33</v>
       </c>
       <c r="V60">
         <v>0</v>
       </c>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1" t="s">
+      <c r="W60" s="2"/>
+      <c r="X60" s="2" t="s">
         <v>197</v>
       </c>
       <c r="Y60">
         <v>0</v>
       </c>
-      <c r="Z60" s="1"/>
+      <c r="Z60" s="2"/>
     </row>
     <row r="61" spans="1:26">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>339</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F61" s="1" t="s">
+      <c r="D61" s="2"/>
+      <c r="E61" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>299</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1" t="s">
+      <c r="H61" s="2"/>
+      <c r="I61" s="2" t="s">
         <v>290</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1" t="s">
+      <c r="K61" s="2"/>
+      <c r="L61" s="2" t="s">
         <v>312</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1" t="s">
+      <c r="N61" s="2"/>
+      <c r="O61" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P61">
         <v>1</v>
       </c>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1" t="s">
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2" t="s">
         <v>291</v>
       </c>
       <c r="S61">
         <v>0</v>
       </c>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1" t="s">
+      <c r="T61" s="2"/>
+      <c r="U61" s="2" t="s">
         <v>75</v>
       </c>
       <c r="V61">
         <v>0</v>
       </c>
-      <c r="W61" s="1"/>
-      <c r="X61" s="1" t="s">
+      <c r="W61" s="2"/>
+      <c r="X61" s="2" t="s">
         <v>340</v>
       </c>
       <c r="Y61">
         <v>0</v>
       </c>
-      <c r="Z61" s="1"/>
+      <c r="Z61" s="2"/>
     </row>
     <row r="62" spans="1:26">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>342</v>
       </c>
       <c r="C62">
         <v>3</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F62" s="1" t="s">
+      <c r="D62" s="2"/>
+      <c r="E62" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>343</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1" t="s">
+      <c r="H62" s="2"/>
+      <c r="I62" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J62">
         <v>1</v>
       </c>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1" t="s">
+      <c r="K62" s="2"/>
+      <c r="L62" s="2" t="s">
         <v>154</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1" t="s">
+      <c r="N62" s="2"/>
+      <c r="O62" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P62">
         <v>1</v>
       </c>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1" t="s">
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2" t="s">
         <v>344</v>
       </c>
       <c r="S62">
         <v>0</v>
       </c>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1" t="s">
+      <c r="T62" s="2"/>
+      <c r="U62" s="2" t="s">
         <v>280</v>
       </c>
       <c r="V62">
         <v>0</v>
       </c>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1" t="s">
+      <c r="W62" s="2"/>
+      <c r="X62" s="2" t="s">
         <v>179</v>
       </c>
       <c r="Y62">
         <v>1</v>
       </c>
-      <c r="Z62" s="1"/>
+      <c r="Z62" s="2"/>
     </row>
     <row r="63" spans="1:26">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>346</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F63" s="1" t="s">
+      <c r="D63" s="2"/>
+      <c r="E63" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>347</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1" t="s">
+      <c r="H63" s="2"/>
+      <c r="I63" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1" t="s">
+      <c r="K63" s="2"/>
+      <c r="L63" s="2" t="s">
         <v>144</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1" t="s">
+      <c r="N63" s="2"/>
+      <c r="O63" s="2" t="s">
         <v>348</v>
       </c>
       <c r="P63">
         <v>0</v>
       </c>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1" t="s">
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2" t="s">
         <v>349</v>
       </c>
       <c r="S63">
         <v>0</v>
       </c>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1" t="s">
+      <c r="T63" s="2"/>
+      <c r="U63" s="2" t="s">
         <v>350</v>
       </c>
       <c r="V63">
         <v>0</v>
       </c>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1" t="s">
+      <c r="W63" s="2"/>
+      <c r="X63" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Y63">
         <v>0</v>
       </c>
-      <c r="Z63" s="1"/>
+      <c r="Z63" s="2"/>
     </row>
     <row r="64" spans="1:26">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>352</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F64" s="1" t="s">
+      <c r="D64" s="2"/>
+      <c r="E64" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>353</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1" t="s">
+      <c r="H64" s="2"/>
+      <c r="I64" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1" t="s">
+      <c r="K64" s="2"/>
+      <c r="L64" s="2" t="s">
         <v>259</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1" t="s">
+      <c r="N64" s="2"/>
+      <c r="O64" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P64">
         <v>1</v>
       </c>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1" t="s">
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2" t="s">
         <v>128</v>
       </c>
       <c r="S64">
         <v>1</v>
       </c>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1" t="s">
+      <c r="T64" s="2"/>
+      <c r="U64" s="2" t="s">
         <v>67</v>
       </c>
       <c r="V64">
         <v>0</v>
       </c>
-      <c r="W64" s="1"/>
-      <c r="X64" s="1" t="s">
+      <c r="W64" s="2"/>
+      <c r="X64" s="2" t="s">
         <v>334</v>
       </c>
       <c r="Y64">
         <v>0</v>
       </c>
-      <c r="Z64" s="1"/>
+      <c r="Z64" s="2"/>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>355</v>
       </c>
       <c r="C65">
         <v>4</v>
       </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F65" s="1" t="s">
+      <c r="D65" s="2"/>
+      <c r="E65" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>182</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1" t="s">
+      <c r="H65" s="2"/>
+      <c r="I65" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J65">
         <v>1</v>
       </c>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1" t="s">
+      <c r="K65" s="2"/>
+      <c r="L65" s="2" t="s">
         <v>102</v>
       </c>
       <c r="M65">
         <v>1</v>
       </c>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1" t="s">
+      <c r="N65" s="2"/>
+      <c r="O65" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P65">
         <v>1</v>
       </c>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1" t="s">
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2" t="s">
         <v>296</v>
       </c>
       <c r="S65">
         <v>0</v>
       </c>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1" t="s">
+      <c r="T65" s="2"/>
+      <c r="U65" s="2" t="s">
         <v>75</v>
       </c>
       <c r="V65">
         <v>0</v>
       </c>
-      <c r="W65" s="1"/>
-      <c r="X65" s="1" t="s">
+      <c r="W65" s="2"/>
+      <c r="X65" s="2" t="s">
         <v>313</v>
       </c>
       <c r="Y65">
         <v>0</v>
       </c>
-      <c r="Z65" s="1"/>
+      <c r="Z65" s="2"/>
     </row>
     <row r="66" spans="1:26">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>357</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F66" s="1" t="s">
+      <c r="D66" s="2"/>
+      <c r="E66" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>358</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1" t="s">
+      <c r="H66" s="2"/>
+      <c r="I66" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1" t="s">
+      <c r="K66" s="2"/>
+      <c r="L66" s="2" t="s">
         <v>359</v>
       </c>
       <c r="M66">
         <v>0</v>
       </c>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1" t="s">
+      <c r="N66" s="2"/>
+      <c r="O66" s="2" t="s">
         <v>360</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1" t="s">
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2" t="s">
         <v>361</v>
       </c>
       <c r="S66">
         <v>0</v>
       </c>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1" t="s">
+      <c r="T66" s="2"/>
+      <c r="U66" s="2" t="s">
         <v>362</v>
       </c>
       <c r="V66">
         <v>0</v>
       </c>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1" t="s">
+      <c r="W66" s="2"/>
+      <c r="X66" s="2" t="s">
         <v>150</v>
       </c>
       <c r="Y66">
         <v>0</v>
       </c>
-      <c r="Z66" s="1"/>
+      <c r="Z66" s="2"/>
     </row>
     <row r="67" spans="1:26">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>364</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F67" s="1" t="s">
+      <c r="D67" s="2"/>
+      <c r="E67" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>365</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1" t="s">
+      <c r="H67" s="2"/>
+      <c r="I67" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J67">
         <v>1</v>
       </c>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1" t="s">
+      <c r="K67" s="2"/>
+      <c r="L67" s="2" t="s">
         <v>144</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1" t="s">
+      <c r="N67" s="2"/>
+      <c r="O67" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1" t="s">
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2" t="s">
         <v>51</v>
       </c>
       <c r="S67">
         <v>0</v>
       </c>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1" t="s">
+      <c r="T67" s="2"/>
+      <c r="U67" s="2" t="s">
         <v>110</v>
       </c>
       <c r="V67">
         <v>0</v>
       </c>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1" t="s">
+      <c r="W67" s="2"/>
+      <c r="X67" s="2" t="s">
         <v>179</v>
       </c>
       <c r="Y67">
         <v>1</v>
       </c>
-      <c r="Z67" s="1"/>
+      <c r="Z67" s="2"/>
     </row>
     <row r="68" spans="1:26">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>368</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F68" s="1" t="s">
+      <c r="D68" s="2"/>
+      <c r="E68" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>369</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1" t="s">
+      <c r="H68" s="2"/>
+      <c r="I68" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J68">
         <v>1</v>
       </c>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1" t="s">
+      <c r="K68" s="2"/>
+      <c r="L68" s="2" t="s">
         <v>370</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1" t="s">
+      <c r="N68" s="2"/>
+      <c r="O68" s="2" t="s">
         <v>371</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1" t="s">
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2" t="s">
         <v>206</v>
       </c>
       <c r="S68">
         <v>0</v>
       </c>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1" t="s">
+      <c r="T68" s="2"/>
+      <c r="U68" s="2" t="s">
         <v>67</v>
       </c>
       <c r="V68">
         <v>0</v>
       </c>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1" t="s">
+      <c r="W68" s="2"/>
+      <c r="X68" s="2" t="s">
         <v>76</v>
       </c>
       <c r="Y68">
         <v>1</v>
       </c>
-      <c r="Z68" s="1"/>
+      <c r="Z68" s="2"/>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>373</v>
       </c>
       <c r="C69">
         <v>3</v>
       </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F69" s="1" t="s">
+      <c r="D69" s="2"/>
+      <c r="E69" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>316</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1" t="s">
+      <c r="H69" s="2"/>
+      <c r="I69" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J69">
         <v>1</v>
       </c>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1" t="s">
+      <c r="K69" s="2"/>
+      <c r="L69" s="2" t="s">
         <v>374</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1" t="s">
+      <c r="N69" s="2"/>
+      <c r="O69" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P69">
         <v>1</v>
       </c>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1" t="s">
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2" t="s">
         <v>291</v>
       </c>
       <c r="S69">
         <v>0</v>
       </c>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1" t="s">
+      <c r="T69" s="2"/>
+      <c r="U69" s="2" t="s">
         <v>110</v>
       </c>
       <c r="V69">
         <v>0</v>
       </c>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1" t="s">
+      <c r="W69" s="2"/>
+      <c r="X69" s="2" t="s">
         <v>150</v>
       </c>
       <c r="Y69">
         <v>0</v>
       </c>
-      <c r="Z69" s="1"/>
+      <c r="Z69" s="2"/>
     </row>
     <row r="70" spans="1:26">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F70" s="1" t="s">
+      <c r="D70" s="2"/>
+      <c r="E70" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>377</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1" t="s">
+      <c r="H70" s="2"/>
+      <c r="I70" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J70">
         <v>1</v>
       </c>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1" t="s">
+      <c r="K70" s="2"/>
+      <c r="L70" s="2" t="s">
         <v>378</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1" t="s">
+      <c r="N70" s="2"/>
+      <c r="O70" s="2" t="s">
         <v>51</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1" t="s">
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2" t="s">
         <v>178</v>
       </c>
       <c r="S70">
         <v>0</v>
       </c>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1" t="s">
+      <c r="T70" s="2"/>
+      <c r="U70" s="2" t="s">
         <v>110</v>
       </c>
       <c r="V70">
         <v>0</v>
       </c>
-      <c r="W70" s="1"/>
-      <c r="X70" s="1" t="s">
+      <c r="W70" s="2"/>
+      <c r="X70" s="2" t="s">
         <v>184</v>
       </c>
       <c r="Y70">
         <v>0</v>
       </c>
-      <c r="Z70" s="1"/>
+      <c r="Z70" s="2"/>
     </row>
     <row r="71" spans="1:26">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>380</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F71" s="1" t="s">
+      <c r="D71" s="2"/>
+      <c r="E71" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>381</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1" t="s">
+      <c r="H71" s="2"/>
+      <c r="I71" s="2" t="s">
         <v>290</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1" t="s">
+      <c r="K71" s="2"/>
+      <c r="L71" s="2" t="s">
         <v>382</v>
       </c>
       <c r="M71">
         <v>0</v>
       </c>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1" t="s">
+      <c r="N71" s="2"/>
+      <c r="O71" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P71">
         <v>1</v>
       </c>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1" t="s">
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2" t="s">
         <v>291</v>
       </c>
       <c r="S71">
         <v>0</v>
       </c>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1" t="s">
+      <c r="T71" s="2"/>
+      <c r="U71" s="2" t="s">
         <v>75</v>
       </c>
       <c r="V71">
         <v>0</v>
       </c>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1" t="s">
+      <c r="W71" s="2"/>
+      <c r="X71" s="2" t="s">
         <v>323</v>
       </c>
       <c r="Y71">
         <v>0</v>
       </c>
-      <c r="Z71" s="1"/>
+      <c r="Z71" s="2"/>
     </row>
     <row r="72" spans="1:26">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>384</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F72" s="1" t="s">
+      <c r="D72" s="2"/>
+      <c r="E72" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>385</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1" t="s">
+      <c r="H72" s="2"/>
+      <c r="I72" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1" t="s">
+      <c r="K72" s="2"/>
+      <c r="L72" s="2" t="s">
         <v>386</v>
       </c>
       <c r="M72">
         <v>0</v>
       </c>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1" t="s">
+      <c r="N72" s="2"/>
+      <c r="O72" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P72">
         <v>1</v>
       </c>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1" t="s">
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2" t="s">
         <v>291</v>
       </c>
       <c r="S72">
         <v>0</v>
       </c>
-      <c r="T72" s="1"/>
-      <c r="U72" s="1" t="s">
+      <c r="T72" s="2"/>
+      <c r="U72" s="2" t="s">
         <v>110</v>
       </c>
       <c r="V72">
         <v>0</v>
       </c>
-      <c r="W72" s="1"/>
-      <c r="X72" s="1" t="s">
+      <c r="W72" s="2"/>
+      <c r="X72" s="2" t="s">
         <v>387</v>
       </c>
       <c r="Y72">
         <v>0</v>
       </c>
-      <c r="Z72" s="1"/>
+      <c r="Z72" s="2"/>
     </row>
     <row r="73" spans="1:26">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>389</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F73" s="1" t="s">
+      <c r="D73" s="2"/>
+      <c r="E73" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>390</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1" t="s">
+      <c r="H73" s="2"/>
+      <c r="I73" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J73">
         <v>1</v>
       </c>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1" t="s">
+      <c r="K73" s="2"/>
+      <c r="L73" s="2" t="s">
         <v>391</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1" t="s">
+      <c r="N73" s="2"/>
+      <c r="O73" s="2" t="s">
         <v>392</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1" t="s">
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2" t="s">
         <v>51</v>
       </c>
       <c r="S73">
         <v>0</v>
       </c>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1" t="s">
+      <c r="T73" s="2"/>
+      <c r="U73" s="2" t="s">
         <v>60</v>
       </c>
       <c r="V73">
         <v>0</v>
       </c>
-      <c r="W73" s="1"/>
-      <c r="X73" s="1" t="s">
+      <c r="W73" s="2"/>
+      <c r="X73" s="2" t="s">
         <v>393</v>
       </c>
       <c r="Y73">
         <v>0</v>
       </c>
-      <c r="Z73" s="1"/>
+      <c r="Z73" s="2"/>
     </row>
     <row r="74" spans="1:26">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>395</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F74" s="1" t="s">
+      <c r="D74" s="2"/>
+      <c r="E74" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>396</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1" t="s">
+      <c r="H74" s="2"/>
+      <c r="I74" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J74">
         <v>1</v>
       </c>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1" t="s">
+      <c r="K74" s="2"/>
+      <c r="L74" s="2" t="s">
         <v>397</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1" t="s">
+      <c r="N74" s="2"/>
+      <c r="O74" s="2" t="s">
         <v>398</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1" t="s">
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2" t="s">
         <v>399</v>
       </c>
       <c r="S74">
         <v>0</v>
       </c>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1" t="s">
+      <c r="T74" s="2"/>
+      <c r="U74" s="2" t="s">
         <v>400</v>
       </c>
       <c r="V74">
         <v>0</v>
       </c>
-      <c r="W74" s="1"/>
-      <c r="X74" s="1" t="s">
+      <c r="W74" s="2"/>
+      <c r="X74" s="2" t="s">
         <v>150</v>
       </c>
       <c r="Y74">
         <v>0</v>
       </c>
-      <c r="Z74" s="1"/>
+      <c r="Z74" s="2"/>
     </row>
     <row r="75" spans="1:26">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>402</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F75" s="1" t="s">
+      <c r="D75" s="2"/>
+      <c r="E75" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>153</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1" t="s">
+      <c r="H75" s="2"/>
+      <c r="I75" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J75">
         <v>1</v>
       </c>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1" t="s">
+      <c r="K75" s="2"/>
+      <c r="L75" s="2" t="s">
         <v>403</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1" t="s">
+      <c r="N75" s="2"/>
+      <c r="O75" s="2" t="s">
         <v>404</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1" t="s">
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2" t="s">
         <v>115</v>
       </c>
       <c r="S75">
         <v>0</v>
       </c>
-      <c r="T75" s="1"/>
-      <c r="U75" s="1" t="s">
+      <c r="T75" s="2"/>
+      <c r="U75" s="2" t="s">
         <v>75</v>
       </c>
       <c r="V75">
         <v>0</v>
       </c>
-      <c r="W75" s="1"/>
-      <c r="X75" s="1" t="s">
+      <c r="W75" s="2"/>
+      <c r="X75" s="2" t="s">
         <v>405</v>
       </c>
       <c r="Y75">
         <v>0</v>
       </c>
-      <c r="Z75" s="1"/>
+      <c r="Z75" s="2"/>
     </row>
     <row r="76" spans="1:26">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>407</v>
       </c>
       <c r="C76">
         <v>3</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F76" s="1" t="s">
+      <c r="D76" s="2"/>
+      <c r="E76" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>408</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1" t="s">
+      <c r="H76" s="2"/>
+      <c r="I76" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1" t="s">
+      <c r="K76" s="2"/>
+      <c r="L76" s="2" t="s">
         <v>409</v>
       </c>
       <c r="M76">
         <v>0</v>
       </c>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1" t="s">
+      <c r="N76" s="2"/>
+      <c r="O76" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P76">
         <v>1</v>
       </c>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1" t="s">
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2" t="s">
         <v>51</v>
       </c>
       <c r="S76">
         <v>0</v>
       </c>
-      <c r="T76" s="1"/>
-      <c r="U76" s="1" t="s">
+      <c r="T76" s="2"/>
+      <c r="U76" s="2" t="s">
         <v>97</v>
       </c>
       <c r="V76">
         <v>0</v>
       </c>
-      <c r="W76" s="1"/>
-      <c r="X76" s="1" t="s">
+      <c r="W76" s="2"/>
+      <c r="X76" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Y76">
         <v>1</v>
       </c>
-      <c r="Z76" s="1"/>
+      <c r="Z76" s="2"/>
     </row>
     <row r="77" spans="1:26">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>411</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F77" s="1" t="s">
+      <c r="D77" s="2"/>
+      <c r="E77" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>412</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1" t="s">
+      <c r="H77" s="2"/>
+      <c r="I77" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J77">
         <v>1</v>
       </c>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1" t="s">
+      <c r="K77" s="2"/>
+      <c r="L77" s="2" t="s">
         <v>382</v>
       </c>
       <c r="M77">
         <v>0</v>
       </c>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1" t="s">
+      <c r="N77" s="2"/>
+      <c r="O77" s="2" t="s">
         <v>413</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1" t="s">
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2" t="s">
         <v>51</v>
       </c>
       <c r="S77">
         <v>0</v>
       </c>
-      <c r="T77" s="1"/>
-      <c r="U77" s="1" t="s">
+      <c r="T77" s="2"/>
+      <c r="U77" s="2" t="s">
         <v>103</v>
       </c>
       <c r="V77">
         <v>1</v>
       </c>
-      <c r="W77" s="1"/>
-      <c r="X77" s="1" t="s">
+      <c r="W77" s="2"/>
+      <c r="X77" s="2" t="s">
         <v>292</v>
       </c>
       <c r="Y77">
         <v>0</v>
       </c>
-      <c r="Z77" s="1"/>
+      <c r="Z77" s="2"/>
     </row>
     <row r="78" spans="1:26">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>415</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F78" s="1" t="s">
+      <c r="D78" s="2"/>
+      <c r="E78" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>416</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1" t="s">
+      <c r="H78" s="2"/>
+      <c r="I78" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J78">
         <v>1</v>
       </c>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1" t="s">
+      <c r="K78" s="2"/>
+      <c r="L78" s="2" t="s">
         <v>417</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1" t="s">
+      <c r="N78" s="2"/>
+      <c r="O78" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P78">
         <v>1</v>
       </c>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1" t="s">
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2" t="s">
         <v>115</v>
       </c>
       <c r="S78">
         <v>0</v>
       </c>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1" t="s">
+      <c r="T78" s="2"/>
+      <c r="U78" s="2" t="s">
         <v>418</v>
       </c>
       <c r="V78">
         <v>0</v>
       </c>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1" t="s">
+      <c r="W78" s="2"/>
+      <c r="X78" s="2" t="s">
         <v>419</v>
       </c>
       <c r="Y78">
         <v>0</v>
       </c>
-      <c r="Z78" s="1"/>
+      <c r="Z78" s="2"/>
     </row>
     <row r="79" spans="1:26">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>421</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F79" s="1" t="s">
+      <c r="D79" s="2"/>
+      <c r="E79" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>422</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1" t="s">
+      <c r="H79" s="2"/>
+      <c r="I79" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1" t="s">
+      <c r="K79" s="2"/>
+      <c r="L79" s="2" t="s">
         <v>423</v>
       </c>
       <c r="M79">
         <v>0</v>
       </c>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1" t="s">
+      <c r="N79" s="2"/>
+      <c r="O79" s="2" t="s">
         <v>424</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1" t="s">
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2" t="s">
         <v>425</v>
       </c>
       <c r="S79">
         <v>0</v>
       </c>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1" t="s">
+      <c r="T79" s="2"/>
+      <c r="U79" s="2" t="s">
         <v>52</v>
       </c>
       <c r="V79">
         <v>0</v>
       </c>
-      <c r="W79" s="1"/>
-      <c r="X79" s="1" t="s">
+      <c r="W79" s="2"/>
+      <c r="X79" s="2" t="s">
         <v>426</v>
       </c>
       <c r="Y79">
         <v>0</v>
       </c>
-      <c r="Z79" s="1"/>
+      <c r="Z79" s="2"/>
     </row>
     <row r="80" spans="1:26">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>428</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F80" s="1" t="s">
+      <c r="D80" s="2"/>
+      <c r="E80" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>429</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
       <c r="J80">
         <v>0</v>
       </c>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1" t="s">
+      <c r="K80" s="2"/>
+      <c r="L80" s="2" t="s">
         <v>430</v>
       </c>
       <c r="M80">
         <v>1</v>
       </c>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1" t="s">
+      <c r="N80" s="2"/>
+      <c r="O80" s="2" t="s">
         <v>431</v>
       </c>
       <c r="P80">
         <v>0</v>
       </c>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1" t="s">
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2" t="s">
         <v>51</v>
       </c>
       <c r="S80">
         <v>0</v>
       </c>
-      <c r="T80" s="1"/>
-      <c r="U80" s="1" t="s">
+      <c r="T80" s="2"/>
+      <c r="U80" s="2" t="s">
         <v>110</v>
       </c>
       <c r="V80">
         <v>0</v>
       </c>
-      <c r="W80" s="1"/>
-      <c r="X80" s="1" t="s">
+      <c r="W80" s="2"/>
+      <c r="X80" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Y80">
         <v>1</v>
       </c>
-      <c r="Z80" s="1"/>
+      <c r="Z80" s="2"/>
     </row>
     <row r="81" spans="1:26">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>433</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F81" s="1" t="s">
+      <c r="D81" s="2"/>
+      <c r="E81" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>434</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1" t="s">
+      <c r="H81" s="2"/>
+      <c r="I81" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J81">
         <v>1</v>
       </c>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1" t="s">
+      <c r="K81" s="2"/>
+      <c r="L81" s="2" t="s">
         <v>382</v>
       </c>
       <c r="M81">
         <v>0</v>
       </c>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1" t="s">
+      <c r="N81" s="2"/>
+      <c r="O81" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P81">
         <v>1</v>
       </c>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1" t="s">
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2" t="s">
         <v>74</v>
       </c>
       <c r="S81">
         <v>0</v>
       </c>
-      <c r="T81" s="1"/>
-      <c r="U81" s="1" t="s">
+      <c r="T81" s="2"/>
+      <c r="U81" s="2" t="s">
         <v>435</v>
       </c>
       <c r="V81">
         <v>0</v>
       </c>
-      <c r="W81" s="1"/>
-      <c r="X81" s="1" t="s">
+      <c r="W81" s="2"/>
+      <c r="X81" s="2" t="s">
         <v>436</v>
       </c>
       <c r="Y81">
         <v>0</v>
       </c>
-      <c r="Z81" s="1"/>
+      <c r="Z81" s="2"/>
     </row>
     <row r="82" spans="1:26">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>438</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F82" s="1" t="s">
+      <c r="D82" s="2"/>
+      <c r="E82" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>439</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1" t="s">
+      <c r="H82" s="2"/>
+      <c r="I82" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J82">
         <v>1</v>
       </c>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1" t="s">
+      <c r="K82" s="2"/>
+      <c r="L82" s="2" t="s">
         <v>149</v>
       </c>
       <c r="M82">
         <v>0</v>
       </c>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1" t="s">
+      <c r="N82" s="2"/>
+      <c r="O82" s="2" t="s">
         <v>145</v>
       </c>
       <c r="P82">
         <v>0</v>
       </c>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1" t="s">
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2" t="s">
         <v>239</v>
       </c>
       <c r="S82">
         <v>0</v>
       </c>
-      <c r="T82" s="1"/>
-      <c r="U82" s="1" t="s">
+      <c r="T82" s="2"/>
+      <c r="U82" s="2" t="s">
         <v>232</v>
       </c>
       <c r="V82">
         <v>0</v>
       </c>
-      <c r="W82" s="1"/>
-      <c r="X82" s="1" t="s">
+      <c r="W82" s="2"/>
+      <c r="X82" s="2" t="s">
         <v>440</v>
       </c>
       <c r="Y82">
         <v>0</v>
       </c>
-      <c r="Z82" s="1"/>
+      <c r="Z82" s="2"/>
     </row>
     <row r="83" spans="1:26">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>442</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F83" s="1" t="s">
+      <c r="D83" s="2"/>
+      <c r="E83" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>443</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1" t="s">
+      <c r="H83" s="2"/>
+      <c r="I83" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J83">
         <v>1</v>
       </c>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1" t="s">
+      <c r="K83" s="2"/>
+      <c r="L83" s="2" t="s">
         <v>444</v>
       </c>
       <c r="M83">
         <v>0</v>
       </c>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1" t="s">
+      <c r="N83" s="2"/>
+      <c r="O83" s="2" t="s">
         <v>445</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="1" t="s">
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2" t="s">
         <v>232</v>
       </c>
       <c r="S83">
         <v>0</v>
       </c>
-      <c r="T83" s="1"/>
-      <c r="U83" s="1" t="s">
+      <c r="T83" s="2"/>
+      <c r="U83" s="2" t="s">
         <v>446</v>
       </c>
       <c r="V83">
         <v>0</v>
       </c>
-      <c r="W83" s="1"/>
-      <c r="X83" s="1" t="s">
+      <c r="W83" s="2"/>
+      <c r="X83" s="2" t="s">
         <v>150</v>
       </c>
       <c r="Y83">
         <v>0</v>
       </c>
-      <c r="Z83" s="1"/>
+      <c r="Z83" s="2"/>
     </row>
     <row r="84" spans="1:26">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>448</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F84" s="1" t="s">
+      <c r="D84" s="2"/>
+      <c r="E84" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>449</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1" t="s">
+      <c r="H84" s="2"/>
+      <c r="I84" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J84">
         <v>1</v>
       </c>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1" t="s">
+      <c r="K84" s="2"/>
+      <c r="L84" s="2" t="s">
         <v>274</v>
       </c>
       <c r="M84">
         <v>0</v>
       </c>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1" t="s">
+      <c r="N84" s="2"/>
+      <c r="O84" s="2" t="s">
         <v>413</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1" t="s">
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2" t="s">
         <v>450</v>
       </c>
       <c r="S84">
         <v>0</v>
       </c>
-      <c r="T84" s="1"/>
-      <c r="U84" s="1" t="s">
+      <c r="T84" s="2"/>
+      <c r="U84" s="2" t="s">
         <v>451</v>
       </c>
       <c r="V84">
         <v>0</v>
       </c>
-      <c r="W84" s="1"/>
-      <c r="X84" s="1" t="s">
+      <c r="W84" s="2"/>
+      <c r="X84" s="2" t="s">
         <v>452</v>
       </c>
       <c r="Y84">
         <v>0</v>
       </c>
-      <c r="Z84" s="1"/>
+      <c r="Z84" s="2"/>
     </row>
     <row r="85" spans="1:26">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>454</v>
       </c>
       <c r="C85">
         <v>4</v>
       </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F85" s="1" t="s">
+      <c r="D85" s="2"/>
+      <c r="E85" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>455</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1" t="s">
+      <c r="H85" s="2"/>
+      <c r="I85" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J85">
         <v>1</v>
       </c>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1" t="s">
+      <c r="K85" s="2"/>
+      <c r="L85" s="2" t="s">
         <v>378</v>
       </c>
       <c r="M85">
         <v>0</v>
       </c>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1" t="s">
+      <c r="N85" s="2"/>
+      <c r="O85" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P85">
         <v>1</v>
       </c>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1" t="s">
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2" t="s">
         <v>81</v>
       </c>
       <c r="S85">
         <v>0</v>
       </c>
-      <c r="T85" s="1"/>
-      <c r="U85" s="1" t="s">
+      <c r="T85" s="2"/>
+      <c r="U85" s="2" t="s">
         <v>103</v>
       </c>
       <c r="V85">
         <v>1</v>
       </c>
-      <c r="W85" s="1"/>
-      <c r="X85" s="1" t="s">
+      <c r="W85" s="2"/>
+      <c r="X85" s="2" t="s">
         <v>104</v>
       </c>
       <c r="Y85">
         <v>1</v>
       </c>
-      <c r="Z85" s="1"/>
+      <c r="Z85" s="2"/>
     </row>
     <row r="86" spans="1:26">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>457</v>
       </c>
       <c r="C86">
         <v>4</v>
       </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F86" s="1" t="s">
+      <c r="D86" s="2"/>
+      <c r="E86" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>458</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1" t="s">
+      <c r="H86" s="2"/>
+      <c r="I86" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J86">
         <v>1</v>
       </c>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1" t="s">
+      <c r="K86" s="2"/>
+      <c r="L86" s="2" t="s">
         <v>459</v>
       </c>
       <c r="M86">
         <v>0</v>
       </c>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1" t="s">
+      <c r="N86" s="2"/>
+      <c r="O86" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P86">
         <v>1</v>
       </c>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1" t="s">
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2" t="s">
         <v>81</v>
       </c>
       <c r="S86">
         <v>0</v>
       </c>
-      <c r="T86" s="1"/>
-      <c r="U86" s="1" t="s">
+      <c r="T86" s="2"/>
+      <c r="U86" s="2" t="s">
         <v>103</v>
       </c>
       <c r="V86">
         <v>1</v>
       </c>
-      <c r="W86" s="1"/>
-      <c r="X86" s="1" t="s">
+      <c r="W86" s="2"/>
+      <c r="X86" s="2" t="s">
         <v>104</v>
       </c>
       <c r="Y86">
         <v>1</v>
       </c>
-      <c r="Z86" s="1"/>
+      <c r="Z86" s="2"/>
     </row>
     <row r="87" spans="1:26">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>461</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F87" s="1" t="s">
+      <c r="D87" s="2"/>
+      <c r="E87" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>462</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1" t="s">
+      <c r="H87" s="2"/>
+      <c r="I87" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J87">
         <v>1</v>
       </c>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1" t="s">
+      <c r="K87" s="2"/>
+      <c r="L87" s="2" t="s">
         <v>108</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1" t="s">
+      <c r="N87" s="2"/>
+      <c r="O87" s="2" t="s">
         <v>463</v>
       </c>
       <c r="P87">
         <v>0</v>
       </c>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1" t="s">
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2" t="s">
         <v>81</v>
       </c>
       <c r="S87">
         <v>0</v>
       </c>
-      <c r="T87" s="1"/>
-      <c r="U87" s="1" t="s">
+      <c r="T87" s="2"/>
+      <c r="U87" s="2" t="s">
         <v>60</v>
       </c>
       <c r="V87">
         <v>0</v>
       </c>
-      <c r="W87" s="1"/>
-      <c r="X87" s="1" t="s">
+      <c r="W87" s="2"/>
+      <c r="X87" s="2" t="s">
         <v>150</v>
       </c>
       <c r="Y87">
         <v>0</v>
       </c>
-      <c r="Z87" s="1"/>
+      <c r="Z87" s="2"/>
     </row>
     <row r="88" spans="1:26">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>465</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
-      <c r="D88" s="1"/>
-      <c r="E88" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F88" s="1" t="s">
+      <c r="D88" s="2"/>
+      <c r="E88" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>466</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1" t="s">
+      <c r="H88" s="2"/>
+      <c r="I88" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J88">
         <v>1</v>
       </c>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1" t="s">
+      <c r="K88" s="2"/>
+      <c r="L88" s="2" t="s">
         <v>144</v>
       </c>
       <c r="M88">
         <v>0</v>
       </c>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1" t="s">
+      <c r="N88" s="2"/>
+      <c r="O88" s="2" t="s">
         <v>467</v>
       </c>
       <c r="P88">
         <v>0</v>
       </c>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1" t="s">
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2" t="s">
         <v>81</v>
       </c>
       <c r="S88">
         <v>0</v>
       </c>
-      <c r="T88" s="1"/>
-      <c r="U88" s="1" t="s">
+      <c r="T88" s="2"/>
+      <c r="U88" s="2" t="s">
         <v>59</v>
       </c>
       <c r="V88">
         <v>0</v>
       </c>
-      <c r="W88" s="1"/>
-      <c r="X88" s="1" t="s">
+      <c r="W88" s="2"/>
+      <c r="X88" s="2" t="s">
         <v>468</v>
       </c>
       <c r="Y88">
         <v>0</v>
       </c>
-      <c r="Z88" s="1"/>
+      <c r="Z88" s="2"/>
     </row>
     <row r="89" spans="1:26">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>470</v>
       </c>
       <c r="C89">
         <v>3</v>
       </c>
-      <c r="D89" s="1"/>
-      <c r="E89" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F89" s="1" t="s">
+      <c r="D89" s="2"/>
+      <c r="E89" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>471</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1" t="s">
+      <c r="H89" s="2"/>
+      <c r="I89" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J89">
         <v>1</v>
       </c>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1" t="s">
+      <c r="K89" s="2"/>
+      <c r="L89" s="2" t="s">
         <v>108</v>
       </c>
       <c r="M89">
         <v>0</v>
       </c>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1" t="s">
+      <c r="N89" s="2"/>
+      <c r="O89" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P89">
         <v>1</v>
       </c>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1" t="s">
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2" t="s">
         <v>128</v>
       </c>
       <c r="S89">
         <v>1</v>
       </c>
-      <c r="T89" s="1"/>
-      <c r="U89" s="1" t="s">
+      <c r="T89" s="2"/>
+      <c r="U89" s="2" t="s">
         <v>139</v>
       </c>
       <c r="V89">
         <v>0</v>
       </c>
-      <c r="W89" s="1"/>
-      <c r="X89" s="1" t="s">
+      <c r="W89" s="2"/>
+      <c r="X89" s="2" t="s">
         <v>197</v>
       </c>
       <c r="Y89">
         <v>0</v>
       </c>
-      <c r="Z89" s="1"/>
+      <c r="Z89" s="2"/>
     </row>
     <row r="90" spans="1:26">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>473</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F90" s="1" t="s">
+      <c r="D90" s="2"/>
+      <c r="E90" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>474</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1" t="s">
+      <c r="H90" s="2"/>
+      <c r="I90" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J90">
         <v>1</v>
       </c>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1" t="s">
+      <c r="K90" s="2"/>
+      <c r="L90" s="2" t="s">
         <v>144</v>
       </c>
       <c r="M90">
         <v>0</v>
       </c>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1" t="s">
+      <c r="N90" s="2"/>
+      <c r="O90" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P90">
         <v>1</v>
       </c>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1" t="s">
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2" t="s">
         <v>178</v>
       </c>
       <c r="S90">
         <v>0</v>
       </c>
-      <c r="T90" s="1"/>
-      <c r="U90" s="1" t="s">
+      <c r="T90" s="2"/>
+      <c r="U90" s="2" t="s">
         <v>90</v>
       </c>
       <c r="V90">
         <v>0</v>
       </c>
-      <c r="W90" s="1"/>
-      <c r="X90" s="1" t="s">
+      <c r="W90" s="2"/>
+      <c r="X90" s="2" t="s">
         <v>475</v>
       </c>
       <c r="Y90">
         <v>0</v>
       </c>
-      <c r="Z90" s="1"/>
+      <c r="Z90" s="2"/>
     </row>
     <row r="91" spans="1:26">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>477</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F91" s="1" t="s">
+      <c r="D91" s="2"/>
+      <c r="E91" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>478</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1" t="s">
+      <c r="H91" s="2"/>
+      <c r="I91" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J91">
         <v>1</v>
       </c>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1" t="s">
+      <c r="K91" s="2"/>
+      <c r="L91" s="2" t="s">
         <v>479</v>
       </c>
       <c r="M91">
         <v>0</v>
       </c>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1" t="s">
+      <c r="N91" s="2"/>
+      <c r="O91" s="2" t="s">
         <v>480</v>
       </c>
       <c r="P91">
         <v>0</v>
       </c>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1" t="s">
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2" t="s">
         <v>59</v>
       </c>
       <c r="S91">
         <v>0</v>
       </c>
-      <c r="T91" s="1"/>
-      <c r="U91" s="1" t="s">
+      <c r="T91" s="2"/>
+      <c r="U91" s="2" t="s">
         <v>481</v>
       </c>
       <c r="V91">
         <v>1</v>
       </c>
-      <c r="W91" s="1"/>
-      <c r="X91" s="1" t="s">
+      <c r="W91" s="2"/>
+      <c r="X91" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Y91">
         <v>1</v>
       </c>
-      <c r="Z91" s="1"/>
+      <c r="Z91" s="2"/>
     </row>
     <row r="92" spans="1:26">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>483</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
-      <c r="D92" s="1"/>
-      <c r="E92" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F92" s="1" t="s">
+      <c r="D92" s="2"/>
+      <c r="E92" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>484</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1" t="s">
+      <c r="H92" s="2"/>
+      <c r="I92" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J92">
         <v>1</v>
       </c>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1" t="s">
+      <c r="K92" s="2"/>
+      <c r="L92" s="2" t="s">
         <v>485</v>
       </c>
       <c r="M92">
         <v>0</v>
       </c>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1" t="s">
+      <c r="N92" s="2"/>
+      <c r="O92" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P92">
         <v>1</v>
       </c>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1" t="s">
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2" t="s">
         <v>232</v>
       </c>
       <c r="S92">
         <v>0</v>
       </c>
-      <c r="T92" s="1"/>
-      <c r="U92" s="1" t="s">
+      <c r="T92" s="2"/>
+      <c r="U92" s="2" t="s">
         <v>51</v>
       </c>
       <c r="V92">
         <v>0</v>
       </c>
-      <c r="W92" s="1"/>
-      <c r="X92" s="1" t="s">
+      <c r="W92" s="2"/>
+      <c r="X92" s="2" t="s">
         <v>468</v>
       </c>
       <c r="Y92">
         <v>0</v>
       </c>
-      <c r="Z92" s="1"/>
+      <c r="Z92" s="2"/>
     </row>
     <row r="93" spans="1:26">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>487</v>
       </c>
       <c r="C93">
         <v>3</v>
       </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="2">
-        <v>45214.8540046296</v>
-      </c>
-      <c r="F93" s="1" t="s">
+      <c r="D93" s="2"/>
+      <c r="E93" s="3">
+        <v>45214.8540046296</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>488</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1" t="s">
+      <c r="H93" s="2"/>
+      <c r="I93" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J93">
         <v>1</v>
       </c>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1" t="s">
+      <c r="K93" s="2"/>
+      <c r="L93" s="2" t="s">
         <v>259</v>
       </c>
       <c r="M93">
         <v>0</v>
       </c>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1" t="s">
+      <c r="N93" s="2"/>
+      <c r="O93" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P93">
         <v>1</v>
       </c>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="1" t="s">
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2" t="s">
         <v>128</v>
       </c>
       <c r="S93">
         <v>1</v>
       </c>
-      <c r="T93" s="1"/>
-      <c r="U93" s="1" t="s">
+      <c r="T93" s="2"/>
+      <c r="U93" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V93">
         <v>0</v>
       </c>
-      <c r="W93" s="1"/>
-      <c r="X93" s="1" t="s">
+      <c r="W93" s="2"/>
+      <c r="X93" s="2" t="s">
         <v>489</v>
       </c>
       <c r="Y93">
         <v>0</v>
       </c>
-      <c r="Z93" s="1"/>
+      <c r="Z93" s="2"/>
+    </row>
+    <row r="94" s="1" customFormat="1" spans="1:16384">
+      <c r="A94" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C94" s="1">
+        <v>7</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="4"/>
+      <c r="XFB94"/>
+      <c r="XFC94"/>
+      <c r="XFD94"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C95" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="C96" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C97" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C98" s="8">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Симбиозы (Общая экология 2023)(1-92).xlsx
+++ b/data/Симбиозы (Общая экология 2023)(1-92).xlsx
@@ -1521,14 +1521,7 @@
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1681,12 +1674,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2016,11 +2015,14 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2029,131 +2031,129 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2591,7 +2591,7 @@
   <dimension ref="A1:XFD98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8252,8 +8252,8 @@
       <c r="B89" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C89">
-        <v>3</v>
+      <c r="C89" s="4">
+        <v>4</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="3">
@@ -8566,82 +8566,75 @@
       <c r="Z93" s="2"/>
     </row>
     <row r="94" s="1" customFormat="1" spans="1:16384">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="5" t="s">
         <v>491</v>
       </c>
       <c r="C94" s="1">
         <v>7</v>
       </c>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="1"/>
-      <c r="S94" s="4"/>
-      <c r="T94" s="4"/>
-      <c r="U94" s="1"/>
-      <c r="V94" s="4"/>
-      <c r="W94" s="4"/>
-      <c r="X94" s="1"/>
-      <c r="Y94" s="4"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5"/>
+      <c r="Y94" s="5"/>
       <c r="XFB94"/>
       <c r="XFC94"/>
       <c r="XFD94"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="C96" s="8">
+      <c r="C96" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98" s="9">
         <v>2</v>
       </c>
     </row>
